--- a/data.xlsx
+++ b/data.xlsx
@@ -468,27 +468,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>anna</t>
+          <t>mike</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>r1</t>
+          <t>tt</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>m</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
